--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42995,6 +42995,41 @@
         <v>4350400</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>6900800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43030,6 +43030,41 @@
         <v>6900800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2571200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43065,6 +43065,41 @@
         <v>2571200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6492500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43100,6 +43100,41 @@
         <v>6492500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>17039300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43135,6 +43135,41 @@
         <v>17039300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>11172500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43170,6 +43170,41 @@
         <v>11172500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5129100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43205,6 +43205,41 @@
         <v>5129100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2008000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43240,6 +43240,41 @@
         <v>2008000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5024300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43275,6 +43275,41 @@
         <v>5024300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>675500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43310,6 +43310,41 @@
         <v>675500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6735700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43345,6 +43345,41 @@
         <v>6735700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>4496400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43380,6 +43380,41 @@
         <v>4496400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>5019000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43415,6 +43415,76 @@
         <v>5019000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3052200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>12733300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43485,6 +43485,76 @@
         <v>12733300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>11095400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>6333800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43555,6 +43555,41 @@
         <v>6333800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>16623800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43590,6 +43590,41 @@
         <v>16623800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>17972600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43625,6 +43625,41 @@
         <v>17972600</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>25518800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43660,6 +43660,41 @@
         <v>25518800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>18490900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43695,6 +43695,76 @@
         <v>18490900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9428700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>14747600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,41 @@
         <v>14747600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>5936400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43800,6 +43800,41 @@
         <v>5936400</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4748800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2055"/>
+  <dimension ref="A1:I2056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72325,6 +72325,41 @@
         <v>4748800</v>
       </c>
     </row>
+    <row r="2056">
+      <c r="A2056" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2056" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2056" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2056" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2056" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2056" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2056" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2056" t="n">
+        <v>6693400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2056"/>
+  <dimension ref="A1:I2057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72360,6 +72360,41 @@
         <v>6693400</v>
       </c>
     </row>
+    <row r="2057">
+      <c r="A2057" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2057" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2057" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2057" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2057" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2057" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2057" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2057" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2057" t="n">
+        <v>5705800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2057"/>
+  <dimension ref="A1:I2058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72395,6 +72395,41 @@
         <v>5705800</v>
       </c>
     </row>
+    <row r="2058">
+      <c r="A2058" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2058" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2058" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2058" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2058" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2058" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2058" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2058" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2058" t="n">
+        <v>3035800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2058"/>
+  <dimension ref="A1:I2059"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72430,6 +72430,41 @@
         <v>3035800</v>
       </c>
     </row>
+    <row r="2059">
+      <c r="A2059" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2059" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2059" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2059" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2059" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2059" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2059" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2059" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2059" t="n">
+        <v>6351500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2059"/>
+  <dimension ref="A1:I2060"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72465,6 +72465,41 @@
         <v>6351500</v>
       </c>
     </row>
+    <row r="2060">
+      <c r="A2060" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2060" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2060" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2060" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2060" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2060" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2060" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2060" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2060" t="n">
+        <v>4700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2060"/>
+  <dimension ref="A1:I2061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72500,6 +72500,41 @@
         <v>4700000</v>
       </c>
     </row>
+    <row r="2061">
+      <c r="A2061" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2061" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2061" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2061" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2061" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2061" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2061" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2061" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2061" t="n">
+        <v>1062400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2061"/>
+  <dimension ref="A1:I2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72535,6 +72535,41 @@
         <v>1062400</v>
       </c>
     </row>
+    <row r="2062">
+      <c r="A2062" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2062" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2062" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2062" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2062" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2062" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2062" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2062" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2062" t="n">
+        <v>2370700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2062"/>
+  <dimension ref="A1:I2063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72570,6 +72570,41 @@
         <v>2370700</v>
       </c>
     </row>
+    <row r="2063">
+      <c r="A2063" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2063" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2063" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2063" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2063" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2063" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2063" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2063" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2063" t="n">
+        <v>4111900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2063"/>
+  <dimension ref="A1:I2064"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72605,6 +72605,41 @@
         <v>4111900</v>
       </c>
     </row>
+    <row r="2064">
+      <c r="A2064" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2064" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2064" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2064" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2064" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2064" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2064" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2064" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2064" t="n">
+        <v>615800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2064"/>
+  <dimension ref="A1:I2065"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72640,6 +72640,41 @@
         <v>615800</v>
       </c>
     </row>
+    <row r="2065">
+      <c r="A2065" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2065" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2065" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2065" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2065" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2065" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2065" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2065" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2065" t="n">
+        <v>9469700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2065"/>
+  <dimension ref="A1:I2066"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72675,6 +72675,41 @@
         <v>9469700</v>
       </c>
     </row>
+    <row r="2066">
+      <c r="A2066" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2066" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2066" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2066" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2066" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2066" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2066" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2066" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2066" t="n">
+        <v>1160800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72710,6 +72710,41 @@
         <v>1160800</v>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2067" t="n">
+        <v>729600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72745,6 +72745,41 @@
         <v>729600</v>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>7440600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72780,6 +72780,41 @@
         <v>7440600</v>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>2323000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7066.xlsx
+++ b/data/7066.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -72815,6 +72815,41 @@
         <v>2323000</v>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>7066</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>YONGTAI</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>371700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
